--- a/Excels/FullSheets.xlsx
+++ b/Excels/FullSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\VIT_PROJE\VIT_HOMEWORKS\WEEK7\Python-Module-Week7_Team1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8145E0AA-096C-485D-A193-D50AC960648F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506B5D19-1C7A-46D7-9535-4F7546F6085B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3576" yWindow="2736" windowWidth="17280" windowHeight="9960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mentor" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="318">
   <si>
     <t>15.05.2023</t>
   </si>
@@ -967,6 +967,21 @@
   </si>
   <si>
     <t>Katilimci hukuk mezunu. 2 yildir Hollanda da. Belediyesinden baski soz konusu degil. VIT projesinin ilk grubu icin de basvurmus ama ozel sebepler dolayisiyla gorusmeye katilamamis. Hollandacasi B1 baslangic seviyesinde. Su an dil kursu takip ediyor. Ingilizcesi de tam olarak oturmamis oldugundan hollandacasi su asamada iyi bir seviyeye getirdikten sonra VIT projesine basvurmasi daha uygun olabilir.</t>
+  </si>
+  <si>
+    <t>Gorusme Tarihi</t>
+  </si>
+  <si>
+    <t>ad soyad</t>
+  </si>
+  <si>
+    <t>mentor</t>
+  </si>
+  <si>
+    <t>IT bilgisi</t>
+  </si>
+  <si>
+    <t>yorumlar</t>
   </si>
 </sst>
 </file>
@@ -974,7 +989,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="d\.m\.yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="d\.m\.yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1063,7 +1078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1077,7 +1092,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1088,17 +1103,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1390,13 +1400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
@@ -1406,825 +1416,834 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>315</v>
+      </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="F1" s="18" t="s">
+        <v>316</v>
+      </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="I1" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="12" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="20" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="20" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="20" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="20" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="20" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="20" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="20" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="20" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="20" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="20" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="20" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="20" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="20" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="20" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="20" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="21">
         <v>4</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="21">
         <v>7</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="20" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4911,8 +4930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F3E520-9F82-4610-976B-D530FA090DD5}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4934,187 +4953,187 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>45090</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>45145</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>45090</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>45145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>45085</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>45145</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>45092</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>45146</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>45094</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>45146</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>45094</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>45146</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>45095</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>45146</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>45095</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>45146</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>45095</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>45147</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>45095</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>45147</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>45091</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>45146</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>45096</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>45146</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>45089</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>45077</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>45147</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>45096</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>45148</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>45097</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>45148</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>45097</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>45148</v>
       </c>
     </row>
